--- a/bots/crawl_ch/output/electronics_2022-07-14.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-07-14.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1810,29 +1810,29 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6761135</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>9.95/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1871,39 +1871,39 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>6761135</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>9.95/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1942,17 +1942,17 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -2025,50 +2025,48 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3494066</t>
+          <t>6761134</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>2</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2078,7 +2076,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2093,53 +2091,55 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli 8.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6761134</t>
+          <t>3494066</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
+          <t>Varta Longlife Power 9V 1er Bli</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>8.95/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2164,41 +2164,39 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power 9V 1er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3494133</t>
+          <t>3494234</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli</t>
+          <t>Varta Electronics V13GA 1er Bli</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13ga-1er-bli/p/3494234</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>8ST</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>3</v>
-      </c>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2207,12 +2205,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1.87/1ST</t>
+          <t>2.95/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2222,7 +2220,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2232,44 +2230,46 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GA 1er Bli 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3494234</t>
+          <t>3494133</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GA 1er Bli</t>
+          <t>Varta Longlife Power AA 8er Bli</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13ga-1er-bli/p/3494234</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>8ST</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2278,12 +2278,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>1.87/1ST</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2303,17 +2303,17 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GA 1er Bli 2.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -2384,24 +2384,24 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6753554</t>
+          <t>3494130</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 4 Stück</t>
+          <t>Varta Longlife Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-4-stueck/p/6753554</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2413,21 +2413,21 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2.99/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2452,29 +2452,29 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 4 Stück 11.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3494130</t>
+          <t>6753554</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli</t>
+          <t>Duracell Batterien Optimum AA/LR6 4 Stück</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-4-stueck/p/6753554</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2486,21 +2486,21 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2.24/1ST</t>
+          <t>2.99/1ST</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2525,12 +2525,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AA/LR6 4 Stück 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -2603,131 +2603,131 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5683906</t>
+          <t>6508223</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l</t>
+          <t>satrap Venti WS Standventilator</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>5</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-venti-ws-standventilator/p/6508223</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>19.95</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>19.95/1ST</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>19.95</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l 19.95 Schweizer Franken</t>
+          <t>satrap Venti WS Standventilator 50% Aktion 29.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6508223</t>
+          <t>5683906</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>satrap Venti WS Standventilator</t>
+          <t>Prix Garantie Wasserkocher 1l</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-venti-ws-standventilator/p/6508223</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>19.95/1ST</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>satrap Venti WS Standventilator 50% Aktion 29.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
+          <t>Prix Garantie Wasserkocher 1l - Online kein Bestand 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -2871,41 +2871,39 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6284849</t>
+          <t>4942597</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Trend Ladekabel Lightning 3m</t>
+          <t>Skross Adapter Europa-Schweiz</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-ladekabel-lightning-3m/p/6284849</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -2919,39 +2917,45 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Trend Ladekabel Lightning 3m 50% Aktion 11.45 Schweizer Franken statt 22.95 Schweizer Franken</t>
+          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4942597</t>
+          <t>3494138</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8ST</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2959,52 +2963,66 @@
           <t>14.95</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1.87/1ST</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3494138</t>
+          <t>4096751</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8ST</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3013,12 +3031,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1.87/1ST</t>
+          <t>2.16/1ST</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3028,7 +3046,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3038,44 +3056,46 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4096751</t>
+          <t>3494909</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
+          <t>Varta Electronics V23GA 1er Bli</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3084,12 +3104,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>3.95/1ST</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3099,7 +3119,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3109,90 +3129,70 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
+          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3494909</t>
+          <t>6119284</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli</t>
+          <t>satrap Aqua SA10 Wasserkocher</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>3.95/1ST</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
+          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3245,41 +3245,39 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6119284</t>
+          <t>6298048</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher</t>
+          <t>Electrolux E201S Classic Staubbeutel</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="n">
-        <v>3</v>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Electrolux</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -3288,68 +3286,88 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
+          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6298048</t>
+          <t>6999781</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>24ST</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Electrolux</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0.87/1ST</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3420,158 +3438,156 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4358323</t>
+          <t>6848736</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
+          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/sony-wf-c500b-in-ear-bluetooth-50-schwarz/p/6848736</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Sony</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>1.66/1ST</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
+          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz) 50% Aktion 39.95 Schweizer Franken statt 79.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5751209</t>
+          <t>4358323</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>49.95</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1.66/1ST</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5750424</t>
+          <t>5751209</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3580,7 +3596,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -3589,49 +3605,51 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6848736</t>
+          <t>5750424</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz)</t>
+          <t>satrap Vento HT2 Reisehaartrockner</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/sony-wf-c500b-in-ear-bluetooth-50-schwarz/p/6848736</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Sony</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -3640,17 +3658,17 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz) 50% Aktion 39.95 Schweizer Franken statt 79.95 Schweizer Franken</t>
+          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3721,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3776,153 +3794,153 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5763068</t>
+          <t>6999749</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>24ST</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>119.00</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0.87/1ST</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3494007</t>
+          <t>5763068</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>4.48/1ST</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>119.00</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6999781</t>
+          <t>3494007</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
+          <t>Varta Longlife Power D 2er Bli</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>24ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3936,12 +3954,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>0.87/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3951,7 +3969,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3961,17 +3979,17 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4022,7 +4040,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4073,7 +4091,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4164,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4235,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4286,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4337,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4370,7 +4388,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4443,7 +4461,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4512,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4567,29 +4585,29 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6999749</t>
+          <t>4096628</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>24ST</t>
+          <t>6ST</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -4603,12 +4621,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.87/1ST</t>
+          <t>2.16/1ST</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4618,7 +4636,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4628,39 +4646,39 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4096628</t>
+          <t>6378875</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -4669,17 +4687,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Wilkinson</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>29.95/1ST</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4689,7 +4707,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4699,34 +4717,34 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6378875</t>
+          <t>3494230</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler</t>
+          <t>Varta Electronics V13GS / V357 1er Bli</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4740,17 +4758,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Wilkinson</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>29.95/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4760,7 +4778,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4770,120 +4788,102 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3494230</t>
+          <t>6872591</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli</t>
+          <t>Bosch Küchenmaschine MUM58243 1000W</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/bosch-kuechenmaschine-mum58243-1000w/p/6872591</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Bosch</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>239.50</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
+          <t>Bosch Küchenmaschine MUM58243 1000W 50% Aktion 239.50 Schweizer Franken statt 479.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6872591</t>
+          <t>6735643</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Bosch Küchenmaschine MUM58243 1000W</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/bosch-kuechenmaschine-mum58243-1000w/p/6872591</t>
+          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Bosch</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>239.50</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -4892,51 +4892,49 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Bosch Küchenmaschine MUM58243 1000W 50% Aktion 239.50 Schweizer Franken statt 479.00 Schweizer Franken</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6735643</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -4945,34 +4943,34 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>6689619</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>Philips Dampfstation HI5919/31</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-dampfstation-hi591931/p/6689619</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -4982,7 +4980,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4996,34 +4994,34 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>Philips Dampfstation HI5919/31 28% Aktion 99.90 Schweizer Franken statt 139.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6689619</t>
+          <t>6266870</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Philips Dampfstation HI5919/31</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-dampfstation-hi591931/p/6689619</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -5033,12 +5031,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>reer</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -5047,49 +5045,51 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Philips Dampfstation HI5919/31 28% Aktion 99.90 Schweizer Franken statt 139.00 Schweizer Franken</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6266870</t>
+          <t>6425996</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>7</v>
+      </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>reer</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>249.00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -5098,42 +5098,40 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6425996</t>
+          <t>6125818</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine</t>
+          <t>satrap Mano XA Handmixer</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
-        <v>7</v>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -5142,7 +5140,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -5156,29 +5154,29 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
+          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6125818</t>
+          <t>5831402</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer</t>
+          <t>Satrap Mikrowelle Micro M2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -5193,7 +5191,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -5207,12 +5205,12 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
+          <t>Satrap Mikrowelle Micro M2 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -5263,7 +5261,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -5314,7 +5312,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -5365,7 +5363,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -5416,7 +5414,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5467,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -5520,7 +5518,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -5571,7 +5569,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -5624,7 +5622,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5693,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5764,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5835,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -5908,7 +5906,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -5979,7 +5977,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -6052,7 +6050,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
@@ -6123,7 +6121,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:16</t>
+          <t>2022-07-14 20:59:25</t>
         </is>
       </c>
     </row>
